--- a/Excel/DateFunctions.xlsx
+++ b/Excel/DateFunctions.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_AF\DPBA_D2957\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36D555A-85F8-44BE-89F3-C6E60D314079}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13270EFA-85A2-4D9C-937D-FAF28A49E09F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" activeTab="1" xr2:uid="{40102075-AA7E-4325-B5AC-9623A240697C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" activeTab="4" xr2:uid="{40102075-AA7E-4325-B5AC-9623A240697C}"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="1" r:id="rId1"/>
     <sheet name="Now" sheetId="2" r:id="rId2"/>
+    <sheet name="DAte" sheetId="3" r:id="rId3"/>
+    <sheet name="DayMonthYear" sheetId="4" r:id="rId4"/>
+    <sheet name="SerialNumber" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -50,6 +53,45 @@
   </si>
   <si>
     <t>Total Working Hours</t>
+  </si>
+  <si>
+    <t>DateOfJoining</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Teja</t>
+  </si>
+  <si>
+    <t>Prakash</t>
+  </si>
+  <si>
+    <t>Pavan</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>TodaySerialNumber</t>
+  </si>
+  <si>
+    <t>Day Using SerialNumbe</t>
+  </si>
+  <si>
+    <t>MonthUsingSerialNumber</t>
+  </si>
+  <si>
+    <t>YearUsingSerialNumber</t>
   </si>
 </sst>
 </file>
@@ -73,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -81,12 +123,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -98,6 +162,17 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,31 +503,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>45892</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <f ca="1">TODAY()</f>
         <v>46072</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <f ca="1">C2-B2</f>
         <v>180</v>
       </c>
@@ -467,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15949C37-A965-446A-B1CE-9F79368C1F36}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:G4"/>
     </sheetView>
   </sheetViews>
@@ -481,36 +556,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>0.375</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>46072.703429166664</v>
-      </c>
-      <c r="D2" s="4">
+        <v>46072.719106597222</v>
+      </c>
+      <c r="D2" s="7">
         <f ca="1">C2-B2</f>
-        <v>46072.328429166664</v>
+        <v>46072.344106597222</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597933E8-283E-4CA8-A4EA-79893D89AD32}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <f>DATE(26,2,19)</f>
+        <v>9547</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE82DE2A-807E-42BD-84A3-7B43C69B8E7B}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.7265625" style="2"/>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="10">
+        <v>38509</v>
+      </c>
+      <c r="C2" s="9">
+        <f>DAY(B2)</f>
+        <v>6</v>
+      </c>
+      <c r="D2" s="9">
+        <f>MONTH(B2)</f>
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <f>YEAR(B2)</f>
+        <v>2005</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10">
+        <v>38112</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C4" si="0">DAY(B3)</f>
+        <v>5</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D4" si="1">MONTH(B3)</f>
+        <v>5</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E4" si="2">YEAR(B3)</f>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="10">
+        <v>37057</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" si="2"/>
+        <v>2001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15902D0-30F4-4DA5-A701-8C3B4ECFDE74}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.26953125" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6328125" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
+        <f ca="1">TODAY()</f>
+        <v>46072</v>
+      </c>
+      <c r="B2" s="12">
+        <f ca="1">TODAY()</f>
+        <v>46072</v>
+      </c>
+      <c r="C2" s="9">
+        <f ca="1">DAY(B2)</f>
+        <v>19</v>
+      </c>
+      <c r="D2" s="9">
+        <f ca="1">MONTH(B2)</f>
+        <v>2</v>
+      </c>
+      <c r="E2" s="9">
+        <f ca="1">YEAR(B2)</f>
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>37057</v>
+      </c>
+      <c r="B3" s="12">
+        <v>37057</v>
+      </c>
+      <c r="C3" s="9">
+        <f>DAY(B3)</f>
+        <v>15</v>
+      </c>
+      <c r="D3" s="9">
+        <f>MONTH(B3)</f>
+        <v>6</v>
+      </c>
+      <c r="E3" s="9">
+        <f>YEAR(B3)</f>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="3">
+        <v>949978</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/DateFunctions.xlsx
+++ b/Excel/DateFunctions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_AF\DPBA_D2957\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13270EFA-85A2-4D9C-937D-FAF28A49E09F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1878892-9BDB-4D63-9366-9E86A41928E4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" activeTab="4" xr2:uid="{40102075-AA7E-4325-B5AC-9623A240697C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" activeTab="5" xr2:uid="{40102075-AA7E-4325-B5AC-9623A240697C}"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="DAte" sheetId="3" r:id="rId3"/>
     <sheet name="DayMonthYear" sheetId="4" r:id="rId4"/>
     <sheet name="SerialNumber" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -92,6 +93,21 @@
   </si>
   <si>
     <t>YearUsingSerialNumber</t>
+  </si>
+  <si>
+    <t>OrderedDate</t>
+  </si>
+  <si>
+    <t>ExpectedDays</t>
+  </si>
+  <si>
+    <t>ActuallDeliveryDate</t>
+  </si>
+  <si>
+    <t>ExpectedMonths</t>
+  </si>
+  <si>
+    <t>ExpectedYears</t>
   </si>
 </sst>
 </file>
@@ -107,12 +123,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -142,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -173,6 +201,18 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,11 +618,11 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>46072.719106597222</v>
+        <v>46072.738584375002</v>
       </c>
       <c r="D2" s="7">
         <f ca="1">C2-B2</f>
-        <v>46072.344106597222</v>
+        <v>46072.363584375002</v>
       </c>
     </row>
   </sheetData>
@@ -729,7 +769,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15902D0-30F4-4DA5-A701-8C3B4ECFDE74}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -810,4 +850,253 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73529CE8-112D-4938-90F2-204D9E6D5C56}">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.26953125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="14">
+        <f ca="1">TODAY()</f>
+        <v>46072</v>
+      </c>
+      <c r="B2" s="13">
+        <v>5</v>
+      </c>
+      <c r="C2" s="14">
+        <f ca="1">A2+B2</f>
+        <v>46077</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="14">
+        <f t="shared" ref="A3:A5" ca="1" si="0">TODAY()</f>
+        <v>46072</v>
+      </c>
+      <c r="B3" s="13">
+        <v>3</v>
+      </c>
+      <c r="C3" s="14">
+        <f t="shared" ref="C3:C5" ca="1" si="1">A3+B3</f>
+        <v>46075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>46072</v>
+      </c>
+      <c r="B4" s="13">
+        <v>10</v>
+      </c>
+      <c r="C4" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>46072</v>
+      </c>
+      <c r="B5" s="13">
+        <v>7</v>
+      </c>
+      <c r="C5" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>46079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <f ca="1">TODAY()</f>
+        <v>46072</v>
+      </c>
+      <c r="B12" s="13">
+        <v>5</v>
+      </c>
+      <c r="C12" s="15">
+        <f ca="1">(B12*30)+A12</f>
+        <v>46222</v>
+      </c>
+      <c r="D12" s="16">
+        <f ca="1">EDATE(A12,B12)</f>
+        <v>46222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <f t="shared" ref="A13:A15" ca="1" si="2">TODAY()</f>
+        <v>46072</v>
+      </c>
+      <c r="B13" s="13">
+        <v>3</v>
+      </c>
+      <c r="C13" s="15">
+        <f t="shared" ref="C13:C15" ca="1" si="3">(B13*30)+A13</f>
+        <v>46162</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="shared" ref="D13:D15" ca="1" si="4">EDATE(A13,B13)</f>
+        <v>46161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>46072</v>
+      </c>
+      <c r="B14" s="13">
+        <v>10</v>
+      </c>
+      <c r="C14" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>46372</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>46375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <f t="shared" ca="1" si="2"/>
+        <v>46072</v>
+      </c>
+      <c r="B15" s="13">
+        <v>7</v>
+      </c>
+      <c r="C15" s="15">
+        <f t="shared" ca="1" si="3"/>
+        <v>46282</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" ca="1" si="4"/>
+        <v>46284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="14">
+        <f ca="1">TODAY()</f>
+        <v>46072</v>
+      </c>
+      <c r="B19" s="13">
+        <v>5</v>
+      </c>
+      <c r="C19" s="15">
+        <f ca="1">(B19*30*12)+A19</f>
+        <v>47872</v>
+      </c>
+      <c r="D19" s="16">
+        <f>L12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="14">
+        <f t="shared" ref="A20:A22" ca="1" si="5">TODAY()</f>
+        <v>46072</v>
+      </c>
+      <c r="B20" s="13">
+        <v>3</v>
+      </c>
+      <c r="C20" s="15">
+        <f t="shared" ref="C20:C22" ca="1" si="6">(B20*30*12)+A20</f>
+        <v>47152</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" ref="D20:D22" ca="1" si="7">EDATE(A20,B20*12)</f>
+        <v>47168</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="14">
+        <f t="shared" ca="1" si="5"/>
+        <v>46072</v>
+      </c>
+      <c r="B21" s="13">
+        <v>10</v>
+      </c>
+      <c r="C21" s="15">
+        <f ca="1">(B21*30*12)+A21</f>
+        <v>49672</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" ca="1" si="7"/>
+        <v>49724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="14">
+        <f t="shared" ca="1" si="5"/>
+        <v>46072</v>
+      </c>
+      <c r="B22" s="13">
+        <v>7</v>
+      </c>
+      <c r="C22" s="15">
+        <f t="shared" ca="1" si="6"/>
+        <v>48592</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" ca="1" si="7"/>
+        <v>48629</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/DateFunctions.xlsx
+++ b/Excel/DateFunctions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_AF\DPBA_D2957\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1878892-9BDB-4D63-9366-9E86A41928E4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5D790F-6E0A-4D98-896C-DE84ACFF1A83}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" activeTab="5" xr2:uid="{40102075-AA7E-4325-B5AC-9623A240697C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" firstSheet="1" activeTab="7" xr2:uid="{40102075-AA7E-4325-B5AC-9623A240697C}"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="DAte" sheetId="3" r:id="rId3"/>
     <sheet name="DayMonthYear" sheetId="4" r:id="rId4"/>
     <sheet name="SerialNumber" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="EDate" sheetId="6" r:id="rId6"/>
+    <sheet name="DateDif" sheetId="7" r:id="rId7"/>
+    <sheet name="WeekDayAndWeekNumber" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -108,12 +110,62 @@
   </si>
   <si>
     <t>ExpectedYears</t>
+  </si>
+  <si>
+    <t>PersonName</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>Jalini</t>
+  </si>
+  <si>
+    <t>Chandu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dilip </t>
+  </si>
+  <si>
+    <t>Datedif year</t>
+  </si>
+  <si>
+    <t>DatedifMonth</t>
+  </si>
+  <si>
+    <t>DatedifDays</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>Voter application and I need to verify the each person eligibilty</t>
+  </si>
+  <si>
+    <t>eligible or not</t>
+  </si>
+  <si>
+    <t>you need to wait for 1 month and 20 days more to get the eligibility</t>
+  </si>
+  <si>
+    <t>WeekDay</t>
+  </si>
+  <si>
+    <t>WeekNumber</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="169" formatCode="[$-409]d/mmm;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -170,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -213,6 +265,33 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,11 +644,11 @@
       </c>
       <c r="C2" s="5">
         <f ca="1">TODAY()</f>
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">C2-B2</f>
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -618,11 +697,11 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>46072.738584375002</v>
+        <v>46076.710836689817</v>
       </c>
       <c r="D2" s="7">
         <f ca="1">C2-B2</f>
-        <v>46072.363584375002</v>
+        <v>46076.335836689817</v>
       </c>
     </row>
   </sheetData>
@@ -802,15 +881,15 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <f ca="1">TODAY()</f>
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="B2" s="12">
         <f ca="1">TODAY()</f>
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="C2" s="9">
         <f ca="1">DAY(B2)</f>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D2" s="9">
         <f ca="1">MONTH(B2)</f>
@@ -856,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73529CE8-112D-4938-90F2-204D9E6D5C56}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -882,53 +961,53 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <f ca="1">TODAY()</f>
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="B2" s="13">
         <v>5</v>
       </c>
       <c r="C2" s="14">
         <f ca="1">A2+B2</f>
-        <v>46077</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <f t="shared" ref="A3:A5" ca="1" si="0">TODAY()</f>
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="B3" s="13">
         <v>3</v>
       </c>
       <c r="C3" s="14">
         <f t="shared" ref="C3:C5" ca="1" si="1">A3+B3</f>
-        <v>46075</v>
+        <v>46079</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="B4" s="13">
         <v>10</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>46082</v>
+        <v>46086</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="B5" s="13">
         <v>7</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>46079</v>
+        <v>46083</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -948,69 +1027,69 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <f ca="1">TODAY()</f>
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="B12" s="13">
         <v>5</v>
       </c>
       <c r="C12" s="15">
         <f ca="1">(B12*30)+A12</f>
-        <v>46222</v>
+        <v>46226</v>
       </c>
       <c r="D12" s="16">
         <f ca="1">EDATE(A12,B12)</f>
-        <v>46222</v>
+        <v>46226</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <f t="shared" ref="A13:A15" ca="1" si="2">TODAY()</f>
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="B13" s="13">
         <v>3</v>
       </c>
       <c r="C13" s="15">
         <f t="shared" ref="C13:C15" ca="1" si="3">(B13*30)+A13</f>
-        <v>46162</v>
+        <v>46166</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" ref="D13:D15" ca="1" si="4">EDATE(A13,B13)</f>
-        <v>46161</v>
+        <v>46165</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="B14" s="13">
         <v>10</v>
       </c>
       <c r="C14" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>46372</v>
+        <v>46376</v>
       </c>
       <c r="D14" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>46375</v>
+        <v>46379</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="B15" s="13">
         <v>7</v>
       </c>
       <c r="C15" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>46282</v>
+        <v>46286</v>
       </c>
       <c r="D15" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>46284</v>
+        <v>46288</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1030,14 +1109,14 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <f ca="1">TODAY()</f>
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="B19" s="13">
         <v>5</v>
       </c>
       <c r="C19" s="15">
         <f ca="1">(B19*30*12)+A19</f>
-        <v>47872</v>
+        <v>47876</v>
       </c>
       <c r="D19" s="16">
         <f>L12</f>
@@ -1047,56 +1126,824 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <f t="shared" ref="A20:A22" ca="1" si="5">TODAY()</f>
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="B20" s="13">
         <v>3</v>
       </c>
       <c r="C20" s="15">
         <f t="shared" ref="C20:C22" ca="1" si="6">(B20*30*12)+A20</f>
-        <v>47152</v>
+        <v>47156</v>
       </c>
       <c r="D20" s="16">
         <f t="shared" ref="D20:D22" ca="1" si="7">EDATE(A20,B20*12)</f>
-        <v>47168</v>
+        <v>47172</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="B21" s="13">
         <v>10</v>
       </c>
       <c r="C21" s="15">
         <f ca="1">(B21*30*12)+A21</f>
-        <v>49672</v>
+        <v>49676</v>
       </c>
       <c r="D21" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>49724</v>
+        <v>49728</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>46072</v>
+        <v>46076</v>
       </c>
       <c r="B22" s="13">
         <v>7</v>
       </c>
       <c r="C22" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>48592</v>
+        <v>48596</v>
       </c>
       <c r="D22" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>48629</v>
+        <v>48633</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B504242F-648D-4176-B526-E19F3832CD10}">
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.7265625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="14">
+        <v>37145</v>
+      </c>
+      <c r="C2" s="13">
+        <f ca="1">DATEDIF(B2,TODAY(),"Y")</f>
+        <v>24</v>
+      </c>
+      <c r="D2" s="9">
+        <f ca="1">DATEDIF(B2,TODAY(),"M")</f>
+        <v>293</v>
+      </c>
+      <c r="E2" s="9">
+        <f ca="1">DATEDIF(B2,TODAY(),"D")</f>
+        <v>8931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="14">
+        <v>38509</v>
+      </c>
+      <c r="C3" s="13">
+        <f t="shared" ref="C3:C5" ca="1" si="0">DATEDIF(B3,TODAY(),"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D5" ca="1" si="1">DATEDIF(B3,TODAY(),"M")</f>
+        <v>248</v>
+      </c>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E5" ca="1" si="2">DATEDIF(B3,TODAY(),"D")</f>
+        <v>7567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="14">
+        <v>38286</v>
+      </c>
+      <c r="C4" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>255</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="14">
+        <v>37903</v>
+      </c>
+      <c r="C5" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>268</v>
+      </c>
+      <c r="E5" s="9">
+        <f t="shared" ca="1" si="2"/>
+        <v>8173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="14">
+        <v>37145</v>
+      </c>
+      <c r="C10" s="20">
+        <f ca="1">TODAY()</f>
+        <v>46076</v>
+      </c>
+      <c r="D10" s="9">
+        <f ca="1">DATEDIF(B10,C10,"Y")</f>
+        <v>24</v>
+      </c>
+      <c r="E10" s="9">
+        <f ca="1">DATEDIF(B10,C10,"M")</f>
+        <v>293</v>
+      </c>
+      <c r="F10" s="9">
+        <f ca="1">DATEDIF(B10,C10,"D")</f>
+        <v>8931</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="14">
+        <v>38509</v>
+      </c>
+      <c r="C11" s="20">
+        <f t="shared" ref="C11:C13" ca="1" si="3">TODAY()</f>
+        <v>46076</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" ref="D11:D13" ca="1" si="4">DATEDIF(B11,C11,"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" ref="E11:E13" ca="1" si="5">DATEDIF(B11,C11,"M")</f>
+        <v>248</v>
+      </c>
+      <c r="F11" s="9">
+        <f t="shared" ref="F11:F13" ca="1" si="6">DATEDIF(B11,C11,"D")</f>
+        <v>7567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14">
+        <v>38286</v>
+      </c>
+      <c r="C12" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>46076</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>255</v>
+      </c>
+      <c r="F12" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="14">
+        <v>37903</v>
+      </c>
+      <c r="C13" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>46076</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" ca="1" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" ca="1" si="5"/>
+        <v>268</v>
+      </c>
+      <c r="F13" s="9">
+        <f t="shared" ca="1" si="6"/>
+        <v>8173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="14">
+        <v>37145</v>
+      </c>
+      <c r="C18" s="21">
+        <f ca="1">TODAY()</f>
+        <v>46076</v>
+      </c>
+      <c r="D18" s="9">
+        <f ca="1">DATEDIF(B18,C18,"Y")</f>
+        <v>24</v>
+      </c>
+      <c r="E18" s="9">
+        <f ca="1">DATEDIF(B18,C18,"M")</f>
+        <v>293</v>
+      </c>
+      <c r="F18" s="9">
+        <f ca="1">DATEDIF(B18,C18,"D")</f>
+        <v>8931</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="14">
+        <v>38509</v>
+      </c>
+      <c r="C19" s="21">
+        <f t="shared" ref="C19:C21" ca="1" si="7">TODAY()</f>
+        <v>46076</v>
+      </c>
+      <c r="D19" s="9">
+        <f ca="1">DATEDIF(B19,C19,"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" ref="E19:E21" ca="1" si="8">DATEDIF(B19,C19,"M")</f>
+        <v>248</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" ref="F19:F21" ca="1" si="9">DATEDIF(B19,C19,"D")</f>
+        <v>7567</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="14">
+        <v>38286</v>
+      </c>
+      <c r="C20" s="21">
+        <f t="shared" ca="1" si="7"/>
+        <v>46076</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" ref="D19:D21" ca="1" si="10">DATEDIF(B20,C20,"Y")</f>
+        <v>21</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>255</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" ca="1" si="9"/>
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="14">
+        <v>37903</v>
+      </c>
+      <c r="C21" s="21">
+        <f t="shared" ca="1" si="7"/>
+        <v>46076</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" ca="1" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" ca="1" si="8"/>
+        <v>268</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" ca="1" si="9"/>
+        <v>8173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="14">
+        <v>37145</v>
+      </c>
+      <c r="C27" s="22">
+        <v>46076</v>
+      </c>
+      <c r="D27" s="9">
+        <f>DATEDIF(B27,C27,"Y")</f>
+        <v>24</v>
+      </c>
+      <c r="E27" s="9">
+        <f>DATEDIF(B27,C27,"M")</f>
+        <v>293</v>
+      </c>
+      <c r="F27" s="9">
+        <f>DATEDIF(B27,C27,"D")</f>
+        <v>8931</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="14">
+        <v>38509</v>
+      </c>
+      <c r="C28" s="22">
+        <f t="shared" ref="C28:C30" ca="1" si="11">TODAY()</f>
+        <v>46076</v>
+      </c>
+      <c r="D28" s="9">
+        <f ca="1">DATEDIF(B28,C28,"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="E28" s="9">
+        <f t="shared" ref="E28:E30" ca="1" si="12">DATEDIF(B28,C28,"M")</f>
+        <v>248</v>
+      </c>
+      <c r="F28" s="9">
+        <f t="shared" ref="F28:F30" ca="1" si="13">DATEDIF(B28,C28,"D")</f>
+        <v>7567</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="14">
+        <v>38286</v>
+      </c>
+      <c r="C29" s="22">
+        <f t="shared" ca="1" si="11"/>
+        <v>46076</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" ref="D29:D30" ca="1" si="14">DATEDIF(B29,C29,"Y")</f>
+        <v>21</v>
+      </c>
+      <c r="E29" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>255</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>7790</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="14">
+        <v>37903</v>
+      </c>
+      <c r="C30" s="22">
+        <f t="shared" ca="1" si="11"/>
+        <v>46076</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" ca="1" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="E30" s="9">
+        <f t="shared" ca="1" si="12"/>
+        <v>268</v>
+      </c>
+      <c r="F30" s="9">
+        <f t="shared" ca="1" si="13"/>
+        <v>8173</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="14">
+        <v>37145</v>
+      </c>
+      <c r="C40" s="20">
+        <f ca="1">TODAY()</f>
+        <v>46076</v>
+      </c>
+      <c r="D40" s="9">
+        <f ca="1">DATEDIF(B40,C40,"Y")</f>
+        <v>24</v>
+      </c>
+      <c r="E40" s="9">
+        <f ca="1">DATEDIF(B40,C40,"YM")</f>
+        <v>5</v>
+      </c>
+      <c r="F40" s="9">
+        <f ca="1">DATEDIF(B40,C40,"MD")</f>
+        <v>12</v>
+      </c>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="14">
+        <v>38509</v>
+      </c>
+      <c r="C41" s="20">
+        <f t="shared" ref="C41:C43" ca="1" si="15">TODAY()</f>
+        <v>46076</v>
+      </c>
+      <c r="D41" s="9">
+        <f t="shared" ref="D41:D43" ca="1" si="16">DATEDIF(B41,C41,"Y")</f>
+        <v>20</v>
+      </c>
+      <c r="E41" s="9">
+        <f t="shared" ref="E41:E43" ca="1" si="17">DATEDIF(B41,C41,"YM")</f>
+        <v>8</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" ref="F41:F43" ca="1" si="18">DATEDIF(B41,C41,"MD")</f>
+        <v>17</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="14">
+        <v>38286</v>
+      </c>
+      <c r="C42" s="20">
+        <f t="shared" ca="1" si="15"/>
+        <v>46076</v>
+      </c>
+      <c r="D42" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="E42" s="9">
+        <f t="shared" ca="1" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" ca="1" si="18"/>
+        <v>28</v>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="14">
+        <v>37903</v>
+      </c>
+      <c r="C43" s="20">
+        <f t="shared" ca="1" si="15"/>
+        <v>46076</v>
+      </c>
+      <c r="D43" s="9">
+        <f t="shared" ca="1" si="16"/>
+        <v>22</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="F43" s="9">
+        <f t="shared" ca="1" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D44" s="4">
+        <v>17</v>
+      </c>
+      <c r="E44" s="4">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4">
+        <v>10</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A37:D37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C3CC59-4D47-4BE7-AC42-1DF9FFF5BB80}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
+        <v>45840</v>
+      </c>
+      <c r="B2" s="9">
+        <f>WEEKDAY(A2)</f>
+        <v>4</v>
+      </c>
+      <c r="C2" s="9">
+        <f>WEEKNUM(A2)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <f ca="1">TODAY()</f>
+        <v>46076</v>
+      </c>
+      <c r="B3" s="9">
+        <f ca="1">WEEKDAY(A3)</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3:C8" ca="1" si="0">WEEKNUM(A3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>46075</v>
+      </c>
+      <c r="B4" s="9">
+        <f t="shared" ref="B4:B8" si="1">WEEKDAY(A4)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>46077</v>
+      </c>
+      <c r="B5" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="11">
+        <v>46053</v>
+      </c>
+      <c r="B6" s="9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C6" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="11">
+        <v>46387</v>
+      </c>
+      <c r="B7" s="9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="25">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="11">
+        <v>45657</v>
+      </c>
+      <c r="B8" s="9">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C8" s="25">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/DateFunctions.xlsx
+++ b/Excel/DateFunctions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_AF\DPBA_D2957\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5D790F-6E0A-4D98-896C-DE84ACFF1A83}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE96793-8957-4F8C-977F-4E87CB2BE466}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" firstSheet="1" activeTab="7" xr2:uid="{40102075-AA7E-4325-B5AC-9623A240697C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" firstSheet="4" activeTab="9" xr2:uid="{40102075-AA7E-4325-B5AC-9623A240697C}"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="EDate" sheetId="6" r:id="rId6"/>
     <sheet name="DateDif" sheetId="7" r:id="rId7"/>
     <sheet name="WeekDayAndWeekNumber" sheetId="8" r:id="rId8"/>
+    <sheet name="WorkDay" sheetId="9" r:id="rId9"/>
+    <sheet name="NetWorkingDays" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -155,6 +157,15 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>WorkDay</t>
+  </si>
+  <si>
+    <t>NoOfWorkingDays</t>
   </si>
 </sst>
 </file>
@@ -222,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -291,6 +302,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -657,6 +674,20 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79468401-4168-4F86-A3FA-81A28A126A80}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15949C37-A965-446A-B1CE-9F79368C1F36}">
   <dimension ref="A1:D2"/>
@@ -697,11 +728,11 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>46076.710836689817</v>
+        <v>46076.736236921293</v>
       </c>
       <c r="D2" s="7">
         <f ca="1">C2-B2</f>
-        <v>46076.335836689817</v>
+        <v>46076.361236921293</v>
       </c>
     </row>
   </sheetData>
@@ -1829,7 +1860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C3CC59-4D47-4BE7-AC42-1DF9FFF5BB80}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -1946,4 +1977,83 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA35E67-61EF-4772-9C6D-827D21F1B319}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="11">
+        <v>46023</v>
+      </c>
+      <c r="B2" s="27">
+        <v>12</v>
+      </c>
+      <c r="C2" s="26">
+        <f>WORKDAY(A2,B2)</f>
+        <v>46041</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
+        <v>46076</v>
+      </c>
+      <c r="B3" s="27">
+        <v>30</v>
+      </c>
+      <c r="C3" s="26">
+        <f>WORKDAY(A3,B3)</f>
+        <v>46118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="11">
+        <v>45658</v>
+      </c>
+      <c r="B4" s="27">
+        <v>365</v>
+      </c>
+      <c r="C4" s="26">
+        <f t="shared" ref="C4:C5" si="0">WORKDAY(A4,B4)</f>
+        <v>46169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>45658</v>
+      </c>
+      <c r="B5" s="27">
+        <v>135</v>
+      </c>
+      <c r="C5" s="26">
+        <f t="shared" si="0"/>
+        <v>45847</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/DateFunctions.xlsx
+++ b/Excel/DateFunctions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_AF\DPBA_D2957\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE96793-8957-4F8C-977F-4E87CB2BE466}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF694FD4-466B-40EF-AEEE-4E14AF52C654}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" firstSheet="4" activeTab="9" xr2:uid="{40102075-AA7E-4325-B5AC-9623A240697C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7530" firstSheet="5" activeTab="10" xr2:uid="{40102075-AA7E-4325-B5AC-9623A240697C}"/>
   </bookViews>
   <sheets>
     <sheet name="Today" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="WeekDayAndWeekNumber" sheetId="8" r:id="rId8"/>
     <sheet name="WorkDay" sheetId="9" r:id="rId9"/>
     <sheet name="NetWorkingDays" sheetId="10" r:id="rId10"/>
+    <sheet name="DateAndTime" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -166,18 +167,59 @@
   </si>
   <si>
     <t>NoOfWorkingDays</t>
+  </si>
+  <si>
+    <t>Item Name</t>
+  </si>
+  <si>
+    <t>Order Date and Time</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Office Chair</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Desk Lamp</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Air Conditioner</t>
+  </si>
+  <si>
+    <t>Coffee Machine</t>
+  </si>
+  <si>
+    <t>Bookshelf</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="169" formatCode="[$-409]d/mmm;@"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-409]d/mmm;@"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d/mmm/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="168" formatCode="d\.m\.yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,8 +227,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +251,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -286,28 +341,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -661,11 +728,11 @@
       </c>
       <c r="C2" s="5">
         <f ca="1">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">C2-B2</f>
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -678,13 +745,210 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79468401-4168-4F86-A3FA-81A28A126A80}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DB5C4D-8312-4838-BD39-B92358A882AA}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" style="29" customWidth="1"/>
+    <col min="3" max="3" width="17.08984375" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="29"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="31">
+        <v>45717.354166666664</v>
+      </c>
+      <c r="C2" s="32">
+        <f>INT(B2)</f>
+        <v>45717</v>
+      </c>
+      <c r="D2" s="33">
+        <f>B2-C2</f>
+        <v>0.35416666666424135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="31">
+        <v>45719.614583333336</v>
+      </c>
+      <c r="C3" s="32">
+        <f t="shared" ref="C3:C11" si="0">INT(B3)</f>
+        <v>45719</v>
+      </c>
+      <c r="D3" s="33">
+        <f t="shared" ref="D3:D11" si="1">B3-C3</f>
+        <v>0.61458333333575865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="31">
+        <v>45721.385416666664</v>
+      </c>
+      <c r="C4" s="32">
+        <f t="shared" si="0"/>
+        <v>45721</v>
+      </c>
+      <c r="D4" s="33">
+        <f t="shared" si="1"/>
+        <v>0.38541666666424135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="31">
+        <v>45723.666666666664</v>
+      </c>
+      <c r="C5" s="32">
+        <f t="shared" si="0"/>
+        <v>45723</v>
+      </c>
+      <c r="D5" s="33">
+        <f t="shared" si="1"/>
+        <v>0.66666666666424135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="31">
+        <v>45726.458333333336</v>
+      </c>
+      <c r="C6" s="32">
+        <f t="shared" si="0"/>
+        <v>45726</v>
+      </c>
+      <c r="D6" s="33">
+        <f t="shared" si="1"/>
+        <v>0.45833333333575865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="31">
+        <v>45728.5625</v>
+      </c>
+      <c r="C7" s="32">
+        <f t="shared" si="0"/>
+        <v>45728</v>
+      </c>
+      <c r="D7" s="33">
+        <f t="shared" si="1"/>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="31">
+        <v>45731.291666666664</v>
+      </c>
+      <c r="C8" s="32">
+        <f t="shared" si="0"/>
+        <v>45731</v>
+      </c>
+      <c r="D8" s="33">
+        <f t="shared" si="1"/>
+        <v>0.29166666666424135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="31">
+        <v>45734.760416666664</v>
+      </c>
+      <c r="C9" s="32">
+        <f t="shared" si="0"/>
+        <v>45734</v>
+      </c>
+      <c r="D9" s="33">
+        <f t="shared" si="1"/>
+        <v>0.76041666666424135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="31">
+        <v>45736.447916666664</v>
+      </c>
+      <c r="C10" s="32">
+        <f t="shared" si="0"/>
+        <v>45736</v>
+      </c>
+      <c r="D10" s="33">
+        <f t="shared" si="1"/>
+        <v>0.44791666666424135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="31">
+        <v>45741.645833333336</v>
+      </c>
+      <c r="C11" s="32">
+        <f t="shared" si="0"/>
+        <v>45741</v>
+      </c>
+      <c r="D11" s="33">
+        <f t="shared" si="1"/>
+        <v>0.64583333333575865</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -728,11 +992,11 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>46076.736236921293</v>
+        <v>46077.694287500002</v>
       </c>
       <c r="D2" s="7">
         <f ca="1">C2-B2</f>
-        <v>46076.361236921293</v>
+        <v>46077.319287500002</v>
       </c>
     </row>
   </sheetData>
@@ -912,15 +1176,15 @@
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <f ca="1">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B2" s="12">
         <f ca="1">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="C2" s="9">
         <f ca="1">DAY(B2)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="9">
         <f ca="1">MONTH(B2)</f>
@@ -992,53 +1256,53 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="14">
         <f ca="1">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B2" s="13">
         <v>5</v>
       </c>
       <c r="C2" s="14">
         <f ca="1">A2+B2</f>
-        <v>46081</v>
+        <v>46082</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <f t="shared" ref="A3:A5" ca="1" si="0">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B3" s="13">
         <v>3</v>
       </c>
       <c r="C3" s="14">
         <f t="shared" ref="C3:C5" ca="1" si="1">A3+B3</f>
-        <v>46079</v>
+        <v>46080</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B4" s="13">
         <v>10</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>46086</v>
+        <v>46087</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B5" s="13">
         <v>7</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>46083</v>
+        <v>46084</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -1058,69 +1322,69 @@
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <f ca="1">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B12" s="13">
         <v>5</v>
       </c>
       <c r="C12" s="15">
         <f ca="1">(B12*30)+A12</f>
-        <v>46226</v>
+        <v>46227</v>
       </c>
       <c r="D12" s="16">
         <f ca="1">EDATE(A12,B12)</f>
-        <v>46226</v>
+        <v>46227</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <f t="shared" ref="A13:A15" ca="1" si="2">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B13" s="13">
         <v>3</v>
       </c>
       <c r="C13" s="15">
         <f t="shared" ref="C13:C15" ca="1" si="3">(B13*30)+A13</f>
-        <v>46166</v>
+        <v>46167</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" ref="D13:D15" ca="1" si="4">EDATE(A13,B13)</f>
-        <v>46165</v>
+        <v>46166</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B14" s="13">
         <v>10</v>
       </c>
       <c r="C14" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>46376</v>
+        <v>46377</v>
       </c>
       <c r="D14" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>46379</v>
+        <v>46380</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B15" s="13">
         <v>7</v>
       </c>
       <c r="C15" s="15">
         <f t="shared" ca="1" si="3"/>
-        <v>46286</v>
+        <v>46287</v>
       </c>
       <c r="D15" s="16">
         <f t="shared" ca="1" si="4"/>
-        <v>46288</v>
+        <v>46289</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1140,14 +1404,14 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <f ca="1">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B19" s="13">
         <v>5</v>
       </c>
       <c r="C19" s="15">
         <f ca="1">(B19*30*12)+A19</f>
-        <v>47876</v>
+        <v>47877</v>
       </c>
       <c r="D19" s="16">
         <f>L12</f>
@@ -1157,52 +1421,52 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <f t="shared" ref="A20:A22" ca="1" si="5">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B20" s="13">
         <v>3</v>
       </c>
       <c r="C20" s="15">
         <f t="shared" ref="C20:C22" ca="1" si="6">(B20*30*12)+A20</f>
-        <v>47156</v>
+        <v>47157</v>
       </c>
       <c r="D20" s="16">
         <f t="shared" ref="D20:D22" ca="1" si="7">EDATE(A20,B20*12)</f>
-        <v>47172</v>
+        <v>47173</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B21" s="13">
         <v>10</v>
       </c>
       <c r="C21" s="15">
         <f ca="1">(B21*30*12)+A21</f>
-        <v>49676</v>
+        <v>49677</v>
       </c>
       <c r="D21" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>49728</v>
+        <v>49729</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B22" s="13">
         <v>7</v>
       </c>
       <c r="C22" s="15">
         <f t="shared" ca="1" si="6"/>
-        <v>48596</v>
+        <v>48597</v>
       </c>
       <c r="D22" s="16">
         <f t="shared" ca="1" si="7"/>
-        <v>48633</v>
+        <v>48634</v>
       </c>
     </row>
   </sheetData>
@@ -1264,7 +1528,7 @@
       </c>
       <c r="E2" s="9">
         <f ca="1">DATEDIF(B2,TODAY(),"D")</f>
-        <v>8931</v>
+        <v>8932</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1284,7 +1548,7 @@
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E5" ca="1" si="2">DATEDIF(B3,TODAY(),"D")</f>
-        <v>7567</v>
+        <v>7568</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1304,7 +1568,7 @@
       </c>
       <c r="E4" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>7790</v>
+        <v>7791</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1324,7 +1588,7 @@
       </c>
       <c r="E5" s="9">
         <f t="shared" ca="1" si="2"/>
-        <v>8173</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1377,7 +1641,7 @@
       </c>
       <c r="C10" s="20">
         <f ca="1">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" s="9">
         <f ca="1">DATEDIF(B10,C10,"Y")</f>
@@ -1389,7 +1653,7 @@
       </c>
       <c r="F10" s="9">
         <f ca="1">DATEDIF(B10,C10,"D")</f>
-        <v>8931</v>
+        <v>8932</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1401,7 +1665,7 @@
       </c>
       <c r="C11" s="20">
         <f t="shared" ref="C11:C13" ca="1" si="3">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" s="9">
         <f t="shared" ref="D11:D13" ca="1" si="4">DATEDIF(B11,C11,"Y")</f>
@@ -1413,7 +1677,7 @@
       </c>
       <c r="F11" s="9">
         <f t="shared" ref="F11:F13" ca="1" si="6">DATEDIF(B11,C11,"D")</f>
-        <v>7567</v>
+        <v>7568</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -1425,7 +1689,7 @@
       </c>
       <c r="C12" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" s="9">
         <f t="shared" ca="1" si="4"/>
@@ -1437,7 +1701,7 @@
       </c>
       <c r="F12" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>7790</v>
+        <v>7791</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1449,7 +1713,7 @@
       </c>
       <c r="C13" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" s="9">
         <f t="shared" ca="1" si="4"/>
@@ -1461,7 +1725,7 @@
       </c>
       <c r="F13" s="9">
         <f t="shared" ca="1" si="6"/>
-        <v>8173</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1500,7 +1764,7 @@
       </c>
       <c r="C18" s="21">
         <f ca="1">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" s="9">
         <f ca="1">DATEDIF(B18,C18,"Y")</f>
@@ -1512,7 +1776,7 @@
       </c>
       <c r="F18" s="9">
         <f ca="1">DATEDIF(B18,C18,"D")</f>
-        <v>8931</v>
+        <v>8932</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -1524,7 +1788,7 @@
       </c>
       <c r="C19" s="21">
         <f t="shared" ref="C19:C21" ca="1" si="7">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" s="9">
         <f ca="1">DATEDIF(B19,C19,"Y")</f>
@@ -1536,7 +1800,7 @@
       </c>
       <c r="F19" s="9">
         <f t="shared" ref="F19:F21" ca="1" si="9">DATEDIF(B19,C19,"D")</f>
-        <v>7567</v>
+        <v>7568</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -1548,10 +1812,10 @@
       </c>
       <c r="C20" s="21">
         <f t="shared" ca="1" si="7"/>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" s="9">
-        <f t="shared" ref="D19:D21" ca="1" si="10">DATEDIF(B20,C20,"Y")</f>
+        <f t="shared" ref="D20:D21" ca="1" si="10">DATEDIF(B20,C20,"Y")</f>
         <v>21</v>
       </c>
       <c r="E20" s="9">
@@ -1560,7 +1824,7 @@
       </c>
       <c r="F20" s="9">
         <f t="shared" ca="1" si="9"/>
-        <v>7790</v>
+        <v>7791</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1572,7 +1836,7 @@
       </c>
       <c r="C21" s="21">
         <f t="shared" ca="1" si="7"/>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" s="9">
         <f t="shared" ca="1" si="10"/>
@@ -1584,7 +1848,7 @@
       </c>
       <c r="F21" s="9">
         <f t="shared" ca="1" si="9"/>
-        <v>8173</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -1639,7 +1903,7 @@
       </c>
       <c r="C28" s="22">
         <f t="shared" ref="C28:C30" ca="1" si="11">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" s="9">
         <f ca="1">DATEDIF(B28,C28,"Y")</f>
@@ -1651,7 +1915,7 @@
       </c>
       <c r="F28" s="9">
         <f t="shared" ref="F28:F30" ca="1" si="13">DATEDIF(B28,C28,"D")</f>
-        <v>7567</v>
+        <v>7568</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1663,7 +1927,7 @@
       </c>
       <c r="C29" s="22">
         <f t="shared" ca="1" si="11"/>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" s="9">
         <f t="shared" ref="D29:D30" ca="1" si="14">DATEDIF(B29,C29,"Y")</f>
@@ -1675,7 +1939,7 @@
       </c>
       <c r="F29" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>7790</v>
+        <v>7791</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -1687,7 +1951,7 @@
       </c>
       <c r="C30" s="22">
         <f t="shared" ca="1" si="11"/>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" s="9">
         <f t="shared" ca="1" si="14"/>
@@ -1699,16 +1963,16 @@
       </c>
       <c r="F30" s="9">
         <f t="shared" ca="1" si="13"/>
-        <v>8173</v>
+        <v>8174</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="24" t="s">
+      <c r="A37" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
@@ -1742,7 +2006,7 @@
       </c>
       <c r="C40" s="20">
         <f ca="1">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" s="9">
         <f ca="1">DATEDIF(B40,C40,"Y")</f>
@@ -1754,7 +2018,7 @@
       </c>
       <c r="F40" s="9">
         <f ca="1">DATEDIF(B40,C40,"MD")</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" s="8"/>
     </row>
@@ -1767,7 +2031,7 @@
       </c>
       <c r="C41" s="20">
         <f t="shared" ref="C41:C43" ca="1" si="15">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" s="9">
         <f t="shared" ref="D41:D43" ca="1" si="16">DATEDIF(B41,C41,"Y")</f>
@@ -1779,7 +2043,7 @@
       </c>
       <c r="F41" s="9">
         <f t="shared" ref="F41:F43" ca="1" si="18">DATEDIF(B41,C41,"MD")</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G41" s="8"/>
     </row>
@@ -1792,7 +2056,7 @@
       </c>
       <c r="C42" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -1804,7 +2068,7 @@
       </c>
       <c r="F42" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G42" s="8"/>
     </row>
@@ -1817,7 +2081,7 @@
       </c>
       <c r="C43" s="20">
         <f t="shared" ca="1" si="15"/>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" s="9">
         <f t="shared" ca="1" si="16"/>
@@ -1829,7 +2093,7 @@
       </c>
       <c r="F43" s="9">
         <f t="shared" ca="1" si="18"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G43" s="8"/>
     </row>
@@ -1898,11 +2162,11 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <f ca="1">TODAY()</f>
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="B3" s="9">
         <f ca="1">WEEKDAY(A3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="9">
         <f t="shared" ref="C3:C8" ca="1" si="0">WEEKNUM(A3)</f>
@@ -1956,7 +2220,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -1969,7 +2233,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
@@ -2009,10 +2273,10 @@
       <c r="A2" s="11">
         <v>46023</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="26">
         <v>12</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <f>WORKDAY(A2,B2)</f>
         <v>46041</v>
       </c>
@@ -2021,10 +2285,10 @@
       <c r="A3" s="11">
         <v>46076</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>30</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="25">
         <f>WORKDAY(A3,B3)</f>
         <v>46118</v>
       </c>
@@ -2033,10 +2297,10 @@
       <c r="A4" s="11">
         <v>45658</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>365</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="25">
         <f t="shared" ref="C4:C5" si="0">WORKDAY(A4,B4)</f>
         <v>46169</v>
       </c>
@@ -2045,10 +2309,10 @@
       <c r="A5" s="11">
         <v>45658</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="26">
         <v>135</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <f t="shared" si="0"/>
         <v>45847</v>
       </c>
